--- a/tasks_updated.xlsx
+++ b/tasks_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="285">
   <si>
     <t>כותרת</t>
   </si>
@@ -808,15 +808,18 @@
     <t>⏳ לבדיקה - תלוי בbackend</t>
   </si>
   <si>
+    <t>✅ בוצע - החיפוש כבר ריאקטיבי עם debounce</t>
+  </si>
+  <si>
+    <t>✅ בוצע - כבר קיים בSubmitExpense</t>
+  </si>
+  <si>
+    <t>✅ בוצע - אין כפילות בקוד</t>
+  </si>
+  <si>
     <t>⏳ לבדיקה</t>
   </si>
   <si>
-    <t>✅ בוצע - כבר קיים בSubmitExpense</t>
-  </si>
-  <si>
-    <t>✅ בוצע - אין כפילות בקוד</t>
-  </si>
-  <si>
     <t>✅ בוצע - כבר קיים בDepartmentManager</t>
   </si>
   <si>
@@ -841,19 +844,31 @@
     <t>✅ בוצע - TomSelectInput בעריכה</t>
   </si>
   <si>
+    <t>✅ בוצע - נוסף debounce לפילטרים</t>
+  </si>
+  <si>
     <t>✅ בוצע - כותרת sticky</t>
   </si>
   <si>
     <t>✅ בוצע - reset של input value</t>
   </si>
   <si>
+    <t>✅ בוצע - נוסף debounce + allowClear לדרופדאונים</t>
+  </si>
+  <si>
     <t>✅ בוצע - Payment Due מותנה בbank_transfer</t>
   </si>
   <si>
     <t>✅ בוצע - לחיצה על שורה פותחת פרטים</t>
   </si>
   <si>
+    <t>✅ בוצע - כבר קיים TomSelect עם createNewOption</t>
+  </si>
+  <si>
     <t>✅ בוצע - הוחלף Cash ב-Standing Order</t>
+  </si>
+  <si>
+    <t>✅ בוצע - נוסף דרופדאון שנת תקציב עם אזהרה בעת שינוי</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1557,7 @@
         <v>254</v>
       </c>
       <c r="J11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1600,7 +1615,7 @@
         <v>244</v>
       </c>
       <c r="J13" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1629,7 +1644,7 @@
         <v>245</v>
       </c>
       <c r="J14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1658,7 +1673,7 @@
         <v>246</v>
       </c>
       <c r="J15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1687,7 +1702,7 @@
         <v>247</v>
       </c>
       <c r="J16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1716,7 +1731,7 @@
         <v>245</v>
       </c>
       <c r="J17" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1774,7 +1789,7 @@
         <v>240</v>
       </c>
       <c r="J19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1803,7 +1818,7 @@
         <v>235</v>
       </c>
       <c r="J20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1832,7 +1847,7 @@
         <v>248</v>
       </c>
       <c r="J21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1861,7 +1876,7 @@
         <v>249</v>
       </c>
       <c r="J22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1919,7 +1934,7 @@
         <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2012,7 +2027,7 @@
         <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2041,7 +2056,7 @@
         <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2070,7 +2085,7 @@
         <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2099,7 +2114,7 @@
         <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2157,7 +2172,7 @@
         <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2189,7 +2204,7 @@
         <v>257</v>
       </c>
       <c r="J33" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2250,7 +2265,7 @@
         <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2337,7 +2352,7 @@
         <v>235</v>
       </c>
       <c r="J38" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2366,7 +2381,7 @@
         <v>240</v>
       </c>
       <c r="J39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2395,7 +2410,7 @@
         <v>235</v>
       </c>
       <c r="J40" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2424,7 +2439,7 @@
         <v>250</v>
       </c>
       <c r="J41" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2453,7 +2468,7 @@
         <v>250</v>
       </c>
       <c r="J42" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2511,7 +2526,7 @@
         <v>250</v>
       </c>
       <c r="J44" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2540,7 +2555,7 @@
         <v>235</v>
       </c>
       <c r="J45" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2548,7 +2563,7 @@
         <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2564,7 +2579,7 @@
         <v>56</v>
       </c>
       <c r="J48" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2572,7 +2587,7 @@
         <v>57</v>
       </c>
       <c r="J49" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2580,7 +2595,7 @@
         <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2588,7 +2603,7 @@
         <v>59</v>
       </c>
       <c r="J51" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2604,7 +2619,7 @@
         <v>61</v>
       </c>
       <c r="J53" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2612,7 +2627,7 @@
         <v>62</v>
       </c>
       <c r="J54" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2628,7 +2643,7 @@
         <v>64</v>
       </c>
       <c r="J56" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2636,7 +2651,7 @@
         <v>65</v>
       </c>
       <c r="J57" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2644,7 +2659,7 @@
         <v>66</v>
       </c>
       <c r="J58" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/tasks_updated.xlsx
+++ b/tasks_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="288">
   <si>
     <t>כותרת</t>
   </si>
@@ -799,7 +799,7 @@
     <t>✅ בוצע - כבר קיים useScrollToItem</t>
   </si>
   <si>
-    <t>⏳ לבדיקה - Export כבר מעביר פילטרים</t>
+    <t>✅ בוצע - הפרונטאנד כבר שולח את כל הפילטרים לייצוא, בעיה בבקאנד אם לא מכבד</t>
   </si>
   <si>
     <t>✅ בוצע - stopPropagation קיים</t>
@@ -820,6 +820,9 @@
     <t>⏳ לבדיקה</t>
   </si>
   <si>
+    <t>✅ בוצע - כפתור מחיקה כבר קיים למנג'רים ואדמינים</t>
+  </si>
+  <si>
     <t>✅ בוצע - כבר קיים בDepartmentManager</t>
   </si>
   <si>
@@ -829,6 +832,9 @@
     <t>✅ בוצע - נוסף מודל אישור</t>
   </si>
   <si>
+    <t>✅ בוצע - נוספו פילטרים של מחלקה וסטטוס ל-Analytics Dashboard</t>
+  </si>
+  <si>
     <t>✅ בוצע - נוסף quote_filename</t>
   </si>
   <si>
@@ -851,6 +857,9 @@
   </si>
   <si>
     <t>✅ בוצע - reset של input value</t>
+  </si>
+  <si>
+    <t>✅ בוצע - TomSelect תומך בהקלדה/חיפוש</t>
   </si>
   <si>
     <t>✅ בוצע - נוסף debounce + allowClear לדרופדאונים</t>
@@ -1586,7 +1595,7 @@
         <v>243</v>
       </c>
       <c r="J12" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1644,7 +1653,7 @@
         <v>245</v>
       </c>
       <c r="J14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1673,7 +1682,7 @@
         <v>246</v>
       </c>
       <c r="J15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1702,7 +1711,7 @@
         <v>247</v>
       </c>
       <c r="J16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1731,7 +1740,7 @@
         <v>245</v>
       </c>
       <c r="J17" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1789,7 +1798,7 @@
         <v>240</v>
       </c>
       <c r="J19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1818,7 +1827,7 @@
         <v>235</v>
       </c>
       <c r="J20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1847,7 +1856,7 @@
         <v>248</v>
       </c>
       <c r="J21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2027,7 +2036,7 @@
         <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2056,7 +2065,7 @@
         <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2114,7 +2123,7 @@
         <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2172,7 +2181,7 @@
         <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2410,7 +2419,7 @@
         <v>235</v>
       </c>
       <c r="J40" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2563,7 +2572,7 @@
         <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2579,7 +2588,7 @@
         <v>56</v>
       </c>
       <c r="J48" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2587,7 +2596,7 @@
         <v>57</v>
       </c>
       <c r="J49" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2619,7 +2628,7 @@
         <v>61</v>
       </c>
       <c r="J53" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2627,7 +2636,7 @@
         <v>62</v>
       </c>
       <c r="J54" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2643,7 +2652,7 @@
         <v>64</v>
       </c>
       <c r="J56" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2651,7 +2660,7 @@
         <v>65</v>
       </c>
       <c r="J57" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2659,7 +2668,7 @@
         <v>66</v>
       </c>
       <c r="J58" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/tasks_updated.xlsx
+++ b/tasks_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="293">
   <si>
     <t>כותרת</t>
   </si>
@@ -817,33 +817,39 @@
     <t>✅ בוצע - אין כפילות בקוד</t>
   </si>
   <si>
+    <t>✅ בוצע - שדה Date שופר ל-Document Date עם הסבר בעברית</t>
+  </si>
+  <si>
+    <t>✅ בוצע - כפתור מחיקה כבר קיים למנג'רים ואדמינים</t>
+  </si>
+  <si>
+    <t>✅ בוצע - נוספו שדות מחלקה ושנת תקציב לפירוט ההוצאה</t>
+  </si>
+  <si>
+    <t>✅ בוצע - כבר קיים בDepartmentManager</t>
+  </si>
+  <si>
+    <t>✅ בוצע - נוספו אייקונים וסטיילינג</t>
+  </si>
+  <si>
+    <t>✅ בוצע - נוסף מודל אישור</t>
+  </si>
+  <si>
+    <t>✅ בוצע - נוספו פילטרים של מחלקה וסטטוס ל-Analytics Dashboard</t>
+  </si>
+  <si>
+    <t>✅ בוצע - נוסף quote_filename</t>
+  </si>
+  <si>
+    <t>✅ בוצע - נוספו תוויות לקבצים</t>
+  </si>
+  <si>
+    <t>✅ בוצע - הטאב מוסתר בSidebar</t>
+  </si>
+  <si>
     <t>⏳ לבדיקה</t>
   </si>
   <si>
-    <t>✅ בוצע - כפתור מחיקה כבר קיים למנג'רים ואדמינים</t>
-  </si>
-  <si>
-    <t>✅ בוצע - כבר קיים בDepartmentManager</t>
-  </si>
-  <si>
-    <t>✅ בוצע - נוספו אייקונים וסטיילינג</t>
-  </si>
-  <si>
-    <t>✅ בוצע - נוסף מודל אישור</t>
-  </si>
-  <si>
-    <t>✅ בוצע - נוספו פילטרים של מחלקה וסטטוס ל-Analytics Dashboard</t>
-  </si>
-  <si>
-    <t>✅ בוצע - נוסף quote_filename</t>
-  </si>
-  <si>
-    <t>✅ בוצע - נוספו תוויות לקבצים</t>
-  </si>
-  <si>
-    <t>✅ בוצע - הטאב מוסתר בSidebar</t>
-  </si>
-  <si>
     <t>✅ בוצע - טבלאות ברוחב מלא</t>
   </si>
   <si>
@@ -853,6 +859,9 @@
     <t>✅ בוצע - נוסף debounce לפילטרים</t>
   </si>
   <si>
+    <t>✅ בוצע - שיפור placeholders בחיפוש להראות אילו שדות מחפשים, התנהגות תלויה בbackend</t>
+  </si>
+  <si>
     <t>✅ בוצע - כותרת sticky</t>
   </si>
   <si>
@@ -863,6 +872,12 @@
   </si>
   <si>
     <t>✅ בוצע - נוסף debounce + allowClear לדרופדאונים</t>
+  </si>
+  <si>
+    <t>⏳ לבדיקה - תלוי בbackend (ייצוא CSV צד שרת)</t>
+  </si>
+  <si>
+    <t>⏳ לבדיקה - תלוי בbackend (הפרונטאנד כבר יש לו pagination ו-debounce)</t>
   </si>
   <si>
     <t>✅ בוצע - Payment Due מותנה בbank_transfer</t>
@@ -1624,7 +1639,7 @@
         <v>244</v>
       </c>
       <c r="J13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1653,7 +1668,7 @@
         <v>245</v>
       </c>
       <c r="J14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1682,7 +1697,7 @@
         <v>246</v>
       </c>
       <c r="J15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1711,7 +1726,7 @@
         <v>247</v>
       </c>
       <c r="J16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1740,7 +1755,7 @@
         <v>245</v>
       </c>
       <c r="J17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1798,7 +1813,7 @@
         <v>240</v>
       </c>
       <c r="J19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1827,7 +1842,7 @@
         <v>235</v>
       </c>
       <c r="J20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1856,7 +1871,7 @@
         <v>248</v>
       </c>
       <c r="J21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1885,7 +1900,7 @@
         <v>249</v>
       </c>
       <c r="J22" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1943,7 +1958,7 @@
         <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2036,7 +2051,7 @@
         <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2065,7 +2080,7 @@
         <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2094,7 +2109,7 @@
         <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2123,7 +2138,7 @@
         <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2181,7 +2196,7 @@
         <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2213,7 +2228,7 @@
         <v>257</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2274,7 +2289,7 @@
         <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2361,7 +2376,7 @@
         <v>235</v>
       </c>
       <c r="J38" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2390,7 +2405,7 @@
         <v>240</v>
       </c>
       <c r="J39" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2419,7 +2434,7 @@
         <v>235</v>
       </c>
       <c r="J40" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2448,7 +2463,7 @@
         <v>250</v>
       </c>
       <c r="J41" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2477,7 +2492,7 @@
         <v>250</v>
       </c>
       <c r="J42" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2535,7 +2550,7 @@
         <v>250</v>
       </c>
       <c r="J44" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2564,7 +2579,7 @@
         <v>235</v>
       </c>
       <c r="J45" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2572,7 +2587,7 @@
         <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2588,7 +2603,7 @@
         <v>56</v>
       </c>
       <c r="J48" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2596,7 +2611,7 @@
         <v>57</v>
       </c>
       <c r="J49" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2604,7 +2619,7 @@
         <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2612,7 +2627,7 @@
         <v>59</v>
       </c>
       <c r="J51" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2628,7 +2643,7 @@
         <v>61</v>
       </c>
       <c r="J53" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2636,7 +2651,7 @@
         <v>62</v>
       </c>
       <c r="J54" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2652,7 +2667,7 @@
         <v>64</v>
       </c>
       <c r="J56" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2660,7 +2675,7 @@
         <v>65</v>
       </c>
       <c r="J57" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2668,7 +2683,7 @@
         <v>66</v>
       </c>
       <c r="J58" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/tasks_updated.xlsx
+++ b/tasks_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="298">
   <si>
     <t>כותרת</t>
   </si>
@@ -808,6 +808,9 @@
     <t>⏳ לבדיקה - תלוי בbackend</t>
   </si>
   <si>
+    <t>✅ בוצע - פילטרים נשמרים ב-URL ונשמרים בניווט הלוך/חזור</t>
+  </si>
+  <si>
     <t>✅ בוצע - החיפוש כבר ריאקטיבי עם debounce</t>
   </si>
   <si>
@@ -847,7 +850,10 @@
     <t>✅ בוצע - הטאב מוסתר בSidebar</t>
   </si>
   <si>
-    <t>⏳ לבדיקה</t>
+    <t>⏳ מחכה להחלטת מוצר - צריך להגדיר היקף דוחות למנג׳ר</t>
+  </si>
+  <si>
+    <t>⏳ מחכה להחלטת מוצר - צריך להגדיר שדות חובה בטופס</t>
   </si>
   <si>
     <t>✅ בוצע - טבלאות ברוחב מלא</t>
@@ -856,10 +862,19 @@
     <t>✅ בוצע - TomSelectInput בעריכה</t>
   </si>
   <si>
+    <t>⏳ מחכה להחלטת מוצר - האם להוסיף שנת תקציב לתתי קטגוריות</t>
+  </si>
+  <si>
     <t>✅ בוצע - נוסף debounce לפילטרים</t>
   </si>
   <si>
+    <t>⏳ מחכה להחלטת מוצר - צריך להגדיר כללים להמרת מטבעות</t>
+  </si>
+  <si>
     <t>✅ בוצע - שיפור placeholders בחיפוש להראות אילו שדות מחפשים, התנהגות תלויה בbackend</t>
+  </si>
+  <si>
+    <t>N/A - טבלת הנחש היא מערכת חיצונית לא בקוד הזה</t>
   </si>
   <si>
     <t>✅ בוצע - כותרת sticky</t>
@@ -1462,7 +1477,7 @@
         <v>253</v>
       </c>
       <c r="J7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1491,7 +1506,7 @@
         <v>235</v>
       </c>
       <c r="J8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1520,7 +1535,7 @@
         <v>240</v>
       </c>
       <c r="J9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1549,7 +1564,7 @@
         <v>241</v>
       </c>
       <c r="J10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1581,7 +1596,7 @@
         <v>254</v>
       </c>
       <c r="J11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1610,7 +1625,7 @@
         <v>243</v>
       </c>
       <c r="J12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1639,7 +1654,7 @@
         <v>244</v>
       </c>
       <c r="J13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1668,7 +1683,7 @@
         <v>245</v>
       </c>
       <c r="J14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1697,7 +1712,7 @@
         <v>246</v>
       </c>
       <c r="J15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1726,7 +1741,7 @@
         <v>247</v>
       </c>
       <c r="J16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1755,7 +1770,7 @@
         <v>245</v>
       </c>
       <c r="J17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1813,7 +1828,7 @@
         <v>240</v>
       </c>
       <c r="J19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1842,7 +1857,7 @@
         <v>235</v>
       </c>
       <c r="J20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1871,7 +1886,7 @@
         <v>248</v>
       </c>
       <c r="J21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1900,7 +1915,7 @@
         <v>249</v>
       </c>
       <c r="J22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1958,7 +1973,7 @@
         <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2051,7 +2066,7 @@
         <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2080,7 +2095,7 @@
         <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2109,7 +2124,7 @@
         <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2138,7 +2153,7 @@
         <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2196,7 +2211,7 @@
         <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2228,7 +2243,7 @@
         <v>257</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2289,7 +2304,7 @@
         <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2376,7 +2391,7 @@
         <v>235</v>
       </c>
       <c r="J38" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2405,7 +2420,7 @@
         <v>240</v>
       </c>
       <c r="J39" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2434,7 +2449,7 @@
         <v>235</v>
       </c>
       <c r="J40" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2463,7 +2478,7 @@
         <v>250</v>
       </c>
       <c r="J41" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2492,7 +2507,7 @@
         <v>250</v>
       </c>
       <c r="J42" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2521,7 +2536,7 @@
         <v>240</v>
       </c>
       <c r="J43" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2550,7 +2565,7 @@
         <v>250</v>
       </c>
       <c r="J44" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2579,7 +2594,7 @@
         <v>235</v>
       </c>
       <c r="J45" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2587,7 +2602,7 @@
         <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2595,7 +2610,7 @@
         <v>55</v>
       </c>
       <c r="J47" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2603,7 +2618,7 @@
         <v>56</v>
       </c>
       <c r="J48" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2611,7 +2626,7 @@
         <v>57</v>
       </c>
       <c r="J49" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2619,7 +2634,7 @@
         <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2627,7 +2642,7 @@
         <v>59</v>
       </c>
       <c r="J51" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2643,7 +2658,7 @@
         <v>61</v>
       </c>
       <c r="J53" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2651,7 +2666,7 @@
         <v>62</v>
       </c>
       <c r="J54" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2667,7 +2682,7 @@
         <v>64</v>
       </c>
       <c r="J56" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2675,7 +2690,7 @@
         <v>65</v>
       </c>
       <c r="J57" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2683,7 +2698,7 @@
         <v>66</v>
       </c>
       <c r="J58" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/tasks_updated.xlsx
+++ b/tasks_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="300">
   <si>
     <t>כותרת</t>
   </si>
@@ -841,6 +841,9 @@
     <t>✅ בוצע - נוספו פילטרים של מחלקה וסטטוס ל-Analytics Dashboard</t>
   </si>
   <si>
+    <t>✅ בוצע חלקית - הפרונטאנד מרענן את ה-user state אם האדמין עורך את עצמו, עדיין תלוי בbackend לעדכון משתמשים אחרים</t>
+  </si>
+  <si>
     <t>✅ בוצע - נוסף quote_filename</t>
   </si>
   <si>
@@ -899,6 +902,9 @@
   </si>
   <si>
     <t>✅ בוצע - לחיצה על שורה פותחת פרטים</t>
+  </si>
+  <si>
+    <t>✅ בוצע - טאב Approvals הוסתר, דרופדאון expense type הוסתר, כל הוצאה מוגשת כ-auto_approved</t>
   </si>
   <si>
     <t>✅ בוצע - כבר קיים TomSelect עם createNewOption</t>
@@ -1799,7 +1805,7 @@
         <v>239</v>
       </c>
       <c r="J18" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1828,7 +1834,7 @@
         <v>240</v>
       </c>
       <c r="J19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1857,7 +1863,7 @@
         <v>235</v>
       </c>
       <c r="J20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1886,7 +1892,7 @@
         <v>248</v>
       </c>
       <c r="J21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1915,7 +1921,7 @@
         <v>249</v>
       </c>
       <c r="J22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1973,7 +1979,7 @@
         <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2066,7 +2072,7 @@
         <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2095,7 +2101,7 @@
         <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2124,7 +2130,7 @@
         <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2153,7 +2159,7 @@
         <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2211,7 +2217,7 @@
         <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2243,7 +2249,7 @@
         <v>257</v>
       </c>
       <c r="J33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2304,7 +2310,7 @@
         <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2391,7 +2397,7 @@
         <v>235</v>
       </c>
       <c r="J38" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2420,7 +2426,7 @@
         <v>240</v>
       </c>
       <c r="J39" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2449,7 +2455,7 @@
         <v>235</v>
       </c>
       <c r="J40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2478,7 +2484,7 @@
         <v>250</v>
       </c>
       <c r="J41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2507,7 +2513,7 @@
         <v>250</v>
       </c>
       <c r="J42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2536,7 +2542,7 @@
         <v>240</v>
       </c>
       <c r="J43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2565,7 +2571,7 @@
         <v>250</v>
       </c>
       <c r="J44" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2594,7 +2600,7 @@
         <v>235</v>
       </c>
       <c r="J45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2602,7 +2608,7 @@
         <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2618,7 +2624,7 @@
         <v>56</v>
       </c>
       <c r="J48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2626,7 +2632,7 @@
         <v>57</v>
       </c>
       <c r="J49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2634,7 +2640,7 @@
         <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2642,7 +2648,7 @@
         <v>59</v>
       </c>
       <c r="J51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2658,7 +2664,7 @@
         <v>61</v>
       </c>
       <c r="J53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2666,7 +2672,7 @@
         <v>62</v>
       </c>
       <c r="J54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2674,7 +2680,7 @@
         <v>63</v>
       </c>
       <c r="J55" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2682,7 +2688,7 @@
         <v>64</v>
       </c>
       <c r="J56" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2690,7 +2696,7 @@
         <v>65</v>
       </c>
       <c r="J57" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2698,7 +2704,7 @@
         <v>66</v>
       </c>
       <c r="J58" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
